--- a/2-PROJ/26-Carte_mini-PAMI/Project Outputs for Carte_MiniPAMI 2025/BOM-Carte_MiniPAMI 2025(PROD).xlsx
+++ b/2-PROJ/26-Carte_mini-PAMI/Project Outputs for Carte_MiniPAMI 2025/BOM-Carte_MiniPAMI 2025(PROD).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Nasa\doc\DOC\Audran\GIT\ELEC\2-PROJ\26-Carte_mini-PAMI\Project Outputs for Carte_MiniPAMI 2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\audran.caron\Documents\GIT perso\ELEC\2-PROJ\26-Carte_mini-PAMI\Project Outputs for Carte_MiniPAMI 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{648D2364-AAA4-4E8C-9B57-E99359D246FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B525F48-526A-4A3F-8253-A825D93E4DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9570" yWindow="1095" windowWidth="21075" windowHeight="15435" xr2:uid="{4BE96A71-F86C-4D85-982E-82ED1A35EF97}"/>
+    <workbookView xWindow="28680" yWindow="810" windowWidth="29040" windowHeight="15840" xr2:uid="{4BE96A71-F86C-4D85-982E-82ED1A35EF97}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM-Carte_MiniPAMI 2025(PROD)" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="122">
   <si>
     <t>Manufacturer Part Number</t>
   </si>
@@ -391,6 +391,9 @@
   </si>
   <si>
     <t>9227673</t>
+  </si>
+  <si>
+    <t>C67273</t>
   </si>
 </sst>
 </file>
@@ -406,7 +409,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -416,6 +419,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD3D3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -457,6 +466,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -477,9 +492,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -517,7 +532,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -623,7 +638,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -765,7 +780,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -778,17 +793,19 @@
   </sheetPr>
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="9" width="11.5703125" customWidth="1"/>
-    <col min="10" max="14" width="16.7109375" customWidth="1"/>
+    <col min="1" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="9" width="11.5546875" customWidth="1"/>
+    <col min="10" max="14" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -832,7 +849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>14</v>
@@ -874,7 +891,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
@@ -910,7 +927,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>32</v>
       </c>
@@ -944,7 +961,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>39</v>
       </c>
@@ -988,7 +1005,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>47</v>
       </c>
@@ -1032,7 +1049,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>56</v>
       </c>
@@ -1061,8 +1078,12 @@
         <v>56</v>
       </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="K7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="M7" s="4" t="s">
         <v>24</v>
       </c>
@@ -1070,7 +1091,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>63</v>
       </c>
@@ -1097,8 +1118,12 @@
         <v>68</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="K8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="M8" s="4" t="s">
         <v>24</v>
       </c>
@@ -1106,7 +1131,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>70</v>
       </c>
@@ -1142,7 +1167,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>75</v>
       </c>
@@ -1186,7 +1211,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>84</v>
       </c>
@@ -1230,7 +1255,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
@@ -1274,7 +1299,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>93</v>
       </c>
@@ -1318,7 +1343,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>99</v>
       </c>
@@ -1362,7 +1387,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>105</v>
       </c>
@@ -1402,7 +1427,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>113</v>
       </c>
